--- a/Files/GH/感豪周报模板-汪雪婷.xlsx
+++ b/Files/GH/感豪周报模板-汪雪婷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,70 @@
   </si>
   <si>
     <t>B2C-PC 品牌列表页设计</t>
+  </si>
+  <si>
+    <t>B2C-PC 商品详情页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 购物车设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 订单结算页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 订单支付页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 会员中心首页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 会员中心-我的订单列表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 会员中心-我的订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 会员中心-我的订单-付款页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 会员中心-我的订单-评论页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 会员中心-我的订单-取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 购物车添加促销信息设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 商品详情页配件推荐设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 帮助中心设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 活动页-限时抢购设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 限时抢购详情页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 活动页-团购列表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,12 +178,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,7 +219,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +541,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,360 +573,564 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>43273</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43273</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43276</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43277</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43277</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
         <v>43278</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
         <v>43278</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43279</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
         <v>43279</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43279</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>43279</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43280</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43280</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43280</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43283</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43283</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>43283</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43284</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43284</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43284</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43284</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
+        <v>43284</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <v>43285</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43285</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43285</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43286</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7">
+        <v>43286</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7">
+        <v>43286</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>

--- a/Files/GH/感豪周报模板-汪雪婷.xlsx
+++ b/Files/GH/感豪周报模板-汪雪婷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="42">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,28 @@
   </si>
   <si>
     <t>B2C-PC 活动页-团购列表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳选</t>
+  </si>
+  <si>
+    <t>之前界面上改为英文的地方，再次修改成中文</t>
+  </si>
+  <si>
+    <t>B2C-PC 活动页-团购详情设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 活动页-积分商城首页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 首页开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C-PC 首页开发、登录页手机验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +563,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,405 +815,489 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>43280</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
         <v>13</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>43280</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>43280</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8">
         <v>15</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>43283</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>43283</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>43283</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
         <v>18</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>43284</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8">
         <v>19</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>43284</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>43284</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8">
         <v>21</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>43284</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8">
         <v>22</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>43284</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
         <v>23</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>43285</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>43285</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
         <v>25</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>43285</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8">
         <v>26</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>43286</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8">
         <v>27</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>43286</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8">
         <v>28</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>43286</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43287</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>43287</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7">
+        <v>43287</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7">
+        <v>43290</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7">
+        <v>43291</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7">
+        <v>43292</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="7">
+        <v>43293</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1231,6 +1337,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
